--- a/SG_Mvn_Project/ExecutionController/Controller.xlsx
+++ b/SG_Mvn_Project/ExecutionController/Controller.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>SlNo</t>
   </si>
@@ -62,12 +62,16 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,13 +440,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="45.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -487,7 +491,9 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -508,7 +514,9 @@
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -529,7 +537,9 @@
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
